--- a/Output/Посудомоечные машины.xlsx
+++ b/Output/Посудомоечные машины.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>Артикул</t>
   </si>
@@ -115,19 +115,28 @@
     <t>Дополнительная информация</t>
   </si>
   <si>
+    <t>DWC5936FS</t>
+  </si>
+  <si>
+    <t>Посудомоечная машина</t>
+  </si>
+  <si>
+    <t>Asko</t>
+  </si>
+  <si>
+    <t>Бытовая техника</t>
+  </si>
+  <si>
+    <t>Посудомоечные машины</t>
+  </si>
+  <si>
+    <t>полноразмерные</t>
+  </si>
+  <si>
     <t>G4203SCCLST</t>
   </si>
   <si>
-    <t>Посудомоечная машина</t>
-  </si>
-  <si>
     <t>Miele</t>
-  </si>
-  <si>
-    <t>Бытовая техника</t>
-  </si>
-  <si>
-    <t>Посудомоечные машины</t>
   </si>
   <si>
     <t>полноразмерная</t>
@@ -553,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,82 +695,43 @@
       </c>
       <c r="H2" t="s"/>
       <c r="I2" t="s"/>
-      <c r="J2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>14</v>
-      </c>
-      <c r="R2" t="n">
-        <v>46</v>
-      </c>
-      <c r="S2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>51</v>
-      </c>
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="s"/>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s"/>
+      <c r="Z2" t="s"/>
+      <c r="AA2" t="s"/>
+      <c r="AB2" t="s"/>
+      <c r="AC2" t="s"/>
+      <c r="AD2" t="s"/>
+      <c r="AE2" t="s"/>
+      <c r="AF2" t="s"/>
+      <c r="AG2" t="s"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -769,46 +739,87 @@
       <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s"/>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
       <c r="H3" t="s"/>
       <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-      <c r="V3" t="s"/>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
-      <c r="Z3" t="s"/>
-      <c r="AA3" t="s"/>
-      <c r="AB3" t="s"/>
-      <c r="AC3" t="s"/>
-      <c r="AD3" t="s"/>
-      <c r="AE3" t="s"/>
-      <c r="AF3" t="s"/>
-      <c r="AG3" t="s"/>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>14</v>
+      </c>
+      <c r="R3" t="n">
+        <v>46</v>
+      </c>
+      <c r="S3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -816,7 +827,9 @@
       <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="G4" t="s"/>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
       <c r="H4" t="s"/>
       <c r="I4" t="s"/>
       <c r="J4" t="s"/>
@@ -846,16 +859,16 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -863,7 +876,9 @@
       <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s"/>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
       <c r="H5" t="s"/>
       <c r="I5" t="s"/>
       <c r="J5" t="s"/>
@@ -893,16 +908,16 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -910,7 +925,9 @@
       <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" t="s"/>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
@@ -940,16 +957,16 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -957,7 +974,9 @@
       <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" t="s"/>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
       <c r="J7" t="s"/>
@@ -987,16 +1006,16 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -1004,7 +1023,9 @@
       <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" t="s"/>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
       <c r="J8" t="s"/>
@@ -1034,16 +1055,16 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -1051,7 +1072,9 @@
       <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="G9" t="s"/>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
@@ -1081,16 +1104,16 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -1098,7 +1121,9 @@
       <c r="F10" t="s">
         <v>37</v>
       </c>
-      <c r="G10" t="s"/>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
       <c r="H10" t="s"/>
       <c r="I10" t="s"/>
       <c r="J10" t="s"/>
@@ -1128,16 +1153,16 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -1150,71 +1175,120 @@
       </c>
       <c r="H11" t="s"/>
       <c r="I11" t="s"/>
-      <c r="J11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="s"/>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+      <c r="Z11" t="s"/>
+      <c r="AA11" t="s"/>
+      <c r="AB11" t="s"/>
+      <c r="AC11" t="s"/>
+      <c r="AD11" t="s"/>
+      <c r="AE11" t="s"/>
+      <c r="AF11" t="s"/>
+      <c r="AG11" t="s"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="N11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P11" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="N12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" t="n">
         <v>13</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R12" t="n">
         <v>47</v>
       </c>
-      <c r="S11" t="s">
-        <v>44</v>
-      </c>
-      <c r="T11" t="s">
-        <v>49</v>
-      </c>
-      <c r="U11" t="s">
-        <v>65</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="S12" t="s">
         <v>47</v>
       </c>
-      <c r="W11" t="s">
-        <v>66</v>
-      </c>
-      <c r="X11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z11" t="s">
+      <c r="T12" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" t="s">
+        <v>68</v>
+      </c>
+      <c r="V12" t="s">
         <v>50</v>
       </c>
-      <c r="AA11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>51</v>
+      <c r="W12" t="s">
+        <v>69</v>
+      </c>
+      <c r="X12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
